--- a/biology/Médecine/Défilé_interscalénique/Défilé_interscalénique.xlsx
+++ b/biology/Médecine/Défilé_interscalénique/Défilé_interscalénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_interscal%C3%A9nique</t>
+          <t>Défilé_interscalénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le défilé interscalènique est un espace situé au-dessus de la clavicule et qui fait communiquer la base du cou avec le défilé costoclaviculaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_interscal%C3%A9nique</t>
+          <t>Défilé_interscalénique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le défilé interscalènique est un triangle de base inférieure formé par la face supérieure de la première côte au niveau du sillon de l'artère subclavière. Les deux autres côtés sont formés par les bords des muscles scalènes antérieur et moyen.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_interscal%C3%A9nique</t>
+          <t>Défilé_interscalénique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le défilé interscalènique donne passage au plexus brachial en haut et à l'artère subclavière en bas.
 </t>
